--- a/assets/testing/brainhelpsimulator.xlsx
+++ b/assets/testing/brainhelpsimulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Documents\Einarbeitsphase\MasterMaze\assets\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE278D3-DA47-4C0E-AB94-D4A702D433CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C37106B-B5BF-4372-94B5-6BADB2BDB18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C897B6FE-7D1E-4F20-B384-71594BFF3CA4}"/>
+    <workbookView xWindow="-5348" yWindow="6465" windowWidth="10800" windowHeight="6367" xr2:uid="{C897B6FE-7D1E-4F20-B384-71594BFF3CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A11AC7-EAFB-4B89-8489-B1991389523D}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="11" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="11" width="5.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -452,155 +452,155 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
